--- a/Unit 9/Unit 9 Exercises - Workbooks-20231019/Exe 9.1D.xlsx
+++ b/Unit 9/Unit 9 Exercises - Workbooks-20231019/Exe 9.1D.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indra Dewaji\Documents\GitHub\researchmethodology\Unit 9\Unit 9 Exercises - Workbooks-20231019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E2A441-5FF6-48A9-8DBE-6AE22B878939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,11 +70,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,12 +132,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -136,16 +173,19 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$15:$D$17</c:f>
@@ -181,7 +221,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A10B-4D3A-9CB1-278180241A3F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="95354240"/>
         <c:axId val="115398528"/>
       </c:barChart>
@@ -190,6 +244,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -207,20 +262,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="115398528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="115398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -238,9 +298,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="95354240"/>
         <c:crosses val="autoZero"/>
@@ -248,6 +310,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -274,7 +338,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -293,9 +363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +403,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -367,6 +437,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -401,9 +472,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,14 +648,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -599,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -610,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -619,7 +693,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -634,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -653,7 +727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -672,7 +746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -691,7 +765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -710,7 +784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -720,7 +794,7 @@
       <c r="D10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -730,7 +804,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -742,7 +816,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -752,7 +826,7 @@
       <c r="D13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -767,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -786,7 +860,7 @@
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -805,7 +879,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -824,7 +898,7 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -843,7 +917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -851,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -859,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -867,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -875,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -883,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -891,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -899,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -907,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -915,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -923,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -931,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -939,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -947,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -955,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -963,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -971,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -979,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -987,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -995,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -1003,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1011,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -1019,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -1027,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -1035,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -1043,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -1051,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -1059,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -1067,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -1075,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1083,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -1091,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1099,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -1107,7 +1181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -1115,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -1123,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -1131,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -1139,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -1155,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -1163,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -1171,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -1179,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -1187,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1195,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1203,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1211,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1219,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1227,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1235,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1243,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1251,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1259,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1267,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -1275,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -1283,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
@@ -1291,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -1299,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
@@ -1307,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1315,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -1323,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -1331,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -1339,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -1347,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -1355,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -1363,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -1371,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -1379,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -1387,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
@@ -1395,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1403,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -1411,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1419,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1427,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1435,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1443,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
@@ -1451,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1459,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -1467,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1475,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1483,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1491,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1499,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1515,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1523,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1531,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1539,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
@@ -1547,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
@@ -1555,7 +1629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1563,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1571,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1579,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1587,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
@@ -1595,7 +1669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1603,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1611,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1619,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1627,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1635,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1643,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1651,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1659,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1667,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1675,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1683,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1691,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1699,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -1707,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1715,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1723,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -1731,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -1739,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1747,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1755,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1763,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1771,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1779,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1787,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1795,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -1803,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1811,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
@@ -1819,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1827,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1835,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1843,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1851,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1859,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1867,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -1875,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1883,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -1891,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1899,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1907,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1915,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1923,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1931,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1947,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
@@ -1955,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1963,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1971,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1979,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
@@ -1997,12 +2071,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2011,12 +2085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
